--- a/biology/Zoologie/Bothriurus_rochai/Bothriurus_rochai.xlsx
+++ b/biology/Zoologie/Bothriurus_rochai/Bothriurus_rochai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bothriurus rochai est une espèce de scorpions de la famille des Bothriuridae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Brésil[1]. Elle se rencontre au Ceará, au Rio Grande do Norte, au Paraíba, au Pernambouc, au Bahia, au Piauí et au Maranhão.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Brésil. Elle se rencontre au Ceará, au Rio Grande do Norte, au Paraíba, au Pernambouc, au Bahia, au Piauí et au Maranhão.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Scorpion Files (13/04/2020)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Scorpion Files (13/04/2020) :
 Bothriurus rochai rochai Mello-Leitão, 1932
 Bothriurus rochai occidentalis Lourenço, 2003 du Maranhão</t>
         </is>
@@ -574,9 +590,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Francisco Diaz da Rocha[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Francisco Diaz da Rocha.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Mello-Leitão, 1932 : Notas sobre escorpioes sul-americanos. Archivos do Museu Nacional, Rio de Janeiro, vol. 34, p. 9-46.
 Lourenço, 2003 "2000" : À propos d’une nouvelle sous-espèce géographique pour Bothriurus rochai Mello-Leitão (Scorpiones, Bothriuridae). Acta Biologica Paranaense, Curitiba, vol. 29, no 1/4, p. 117-125.</t>
